--- a/2025-1/planificacion_EAEI_2025-1.xlsx
+++ b/2025-1/planificacion_EAEI_2025-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d52177a9150211f7/Documents/UNAM/ENES/Lic. Ecologia/Estadística Aplicada I/2025-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d52177a9150211f7/Documents/UNAM/ENES/Lic. Ecologia/Estadística Aplicada I/LE-EAI/2025-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="11_AD4D2F04E46CFB4ACB3E20939DD7FA48683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41144AFF-C5FC-49E7-B357-3AA263950DF0}"/>
+  <xr:revisionPtr revIDLastSave="317" documentId="11_AD4D2F04E46CFB4ACB3E20939DD7FA48683EDF10" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF9FD26-B7D7-4D3B-BB07-B7B3CC318A60}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="49">
   <si>
     <t>Fecha</t>
   </si>
@@ -122,6 +122,75 @@
   </si>
   <si>
     <t>Peso</t>
+  </si>
+  <si>
+    <t>Lab 2: Estadística descriptiva con R</t>
+  </si>
+  <si>
+    <t>Lab 1: Uso de R y R-Studio</t>
+  </si>
+  <si>
+    <t>Lab3: Prueba de hipótesis simples</t>
+  </si>
+  <si>
+    <t>Tema II - Estadística descriptiva.pptx</t>
+  </si>
+  <si>
+    <t>Tema III - Prueba de hipótesis I.pptx</t>
+  </si>
+  <si>
+    <t>Tema III - Prueba de hipótesis II.pptx</t>
+  </si>
+  <si>
+    <t>Tema III - Prueba de hipótesis III.pptx</t>
+  </si>
+  <si>
+    <t>Evaluación de aula</t>
+  </si>
+  <si>
+    <t>Lab4: ANOVA</t>
+  </si>
+  <si>
+    <t>Lab5: ANOVA complejos</t>
+  </si>
+  <si>
+    <t>Tema IV - ANOVA.pptx</t>
+  </si>
+  <si>
+    <t>Tema IV - ANOVA - Comparaciones multiples.pptx</t>
+  </si>
+  <si>
+    <t>Tema IV - Diseño de experimentos (ANOVA Parte 2).pptx</t>
+  </si>
+  <si>
+    <t>Tema IV - Diseño de experimentos (ANOVA Parte 3).pptx</t>
+  </si>
+  <si>
+    <t>Tema V - regresión lineal.pptx</t>
+  </si>
+  <si>
+    <t>Tema VI. Analisis de Frecuencia</t>
+  </si>
+  <si>
+    <t>Tema VI. Tablas de Contingencia</t>
+  </si>
+  <si>
+    <t>Tema VI. Pruebas Ji-cuadrado</t>
+  </si>
+  <si>
+    <t>Lab6: Regresión lineal y Correlación</t>
+  </si>
+  <si>
+    <t>Lab7: Análisis de frecuencia</t>
+  </si>
+  <si>
+    <t>Tema VII. Estadística No paramétrica - Rangos</t>
+  </si>
+  <si>
+    <t>Por diseñar</t>
+  </si>
+  <si>
+    <t>Tema VII. Estadística No paramétrica - MLG - Permutaciones</t>
   </si>
 </sst>
 </file>
@@ -178,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -191,7 +260,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1046,7 +1114,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCB75464-4480-4A30-97F5-EB41977592B5}" name="TablaDinámica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BCB75464-4480-4A30-97F5-EB41977592B5}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="15" showAll="0">
@@ -1835,7 +1903,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
@@ -1843,139 +1911,139 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <f>100*(F4/(48))</f>
         <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>9</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G10" si="0">100*(F5/(48))</f>
         <v>18.75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>6</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="6">
-        <v>6</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>4</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="E8" s="8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>6</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="E9" s="8">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6">
-        <v>6</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
-        <v>5</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
         <v>7</v>
       </c>
-      <c r="F10" s="6">
-        <v>5</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
         <v>10.416666666666668</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>48</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <f>SUM(G4:G10)</f>
         <v>100</v>
       </c>
@@ -1990,7 +2058,7 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2064,6 +2132,9 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
@@ -2077,6 +2148,9 @@
       </c>
       <c r="C5" t="s">
         <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -2093,6 +2167,9 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -2108,6 +2185,9 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
@@ -2123,6 +2203,9 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
@@ -2138,6 +2221,9 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
@@ -2153,6 +2239,9 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
@@ -2168,6 +2257,9 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
@@ -2183,6 +2275,9 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
@@ -2198,6 +2293,9 @@
       <c r="C13" t="s">
         <v>6</v>
       </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
@@ -2213,6 +2311,9 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
@@ -2228,6 +2329,9 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
@@ -2243,6 +2347,9 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
@@ -2258,6 +2365,9 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
@@ -2273,6 +2383,9 @@
       <c r="C18" t="s">
         <v>6</v>
       </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
@@ -2288,6 +2401,9 @@
       <c r="C19" t="s">
         <v>6</v>
       </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
@@ -2303,6 +2419,9 @@
       <c r="C20" t="s">
         <v>6</v>
       </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
@@ -2318,6 +2437,9 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
@@ -2333,6 +2455,9 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
@@ -2348,6 +2473,9 @@
       <c r="C23" t="s">
         <v>5</v>
       </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
       <c r="E23" t="s">
         <v>7</v>
       </c>
@@ -2363,6 +2491,9 @@
       <c r="C24" t="s">
         <v>5</v>
       </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
       <c r="E24" t="s">
         <v>7</v>
       </c>
@@ -2378,6 +2509,9 @@
       <c r="C25" t="s">
         <v>5</v>
       </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
       <c r="E25" t="s">
         <v>7</v>
       </c>
@@ -2392,6 +2526,9 @@
       </c>
       <c r="C26" t="s">
         <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -2408,6 +2545,9 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
@@ -2423,6 +2563,9 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
@@ -2438,6 +2581,9 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
@@ -2453,6 +2599,9 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
       <c r="E30" t="s">
         <v>7</v>
       </c>
@@ -2468,6 +2617,9 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
       <c r="E31" t="s">
         <v>7</v>
       </c>
@@ -2483,6 +2635,9 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
       <c r="E32" t="s">
         <v>7</v>
       </c>
@@ -2498,6 +2653,9 @@
       <c r="C33" t="s">
         <v>5</v>
       </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
@@ -2513,6 +2671,9 @@
       <c r="C34" t="s">
         <v>5</v>
       </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
@@ -2528,6 +2689,9 @@
       <c r="C35" t="s">
         <v>5</v>
       </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
@@ -2543,6 +2707,9 @@
       <c r="C36" t="s">
         <v>6</v>
       </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
@@ -2558,6 +2725,9 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
@@ -2573,6 +2743,9 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
@@ -2588,6 +2761,9 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
       <c r="E39" t="s">
         <v>7</v>
       </c>
@@ -2602,6 +2778,9 @@
       </c>
       <c r="C40" t="s">
         <v>5</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -2618,6 +2797,9 @@
       <c r="C41" t="s">
         <v>5</v>
       </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
       <c r="E41" t="s">
         <v>7</v>
       </c>
@@ -2633,6 +2815,9 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
       <c r="E42" t="s">
         <v>7</v>
       </c>
@@ -2648,6 +2833,9 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
       <c r="E43" t="s">
         <v>7</v>
       </c>
@@ -2663,6 +2851,9 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
       <c r="E44" t="s">
         <v>7</v>
       </c>
@@ -2678,6 +2869,9 @@
       <c r="C45" t="s">
         <v>5</v>
       </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
@@ -2691,7 +2885,10 @@
         <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>47</v>
       </c>
       <c r="E46" t="s">
         <v>8</v>
@@ -2706,7 +2903,10 @@
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
       </c>
       <c r="E47" t="s">
         <v>7</v>
@@ -2722,6 +2922,9 @@
       </c>
       <c r="C48" t="s">
         <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
       </c>
       <c r="E48" t="s">
         <v>7</v>
@@ -2816,7 +3019,7 @@
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2827,7 +3030,7 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>8.3333333333333321</v>
       </c>
     </row>
@@ -2838,7 +3041,7 @@
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>18.75</v>
       </c>
     </row>
@@ -2849,7 +3052,7 @@
       <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>12.5</v>
       </c>
     </row>
@@ -2860,7 +3063,7 @@
       <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>25</v>
       </c>
     </row>
@@ -2871,7 +3074,7 @@
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>12.5</v>
       </c>
     </row>
@@ -2882,7 +3085,7 @@
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>12.5</v>
       </c>
     </row>
@@ -2893,7 +3096,7 @@
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>10.416666666666668</v>
       </c>
     </row>
